--- a/Models/Industry_model/Input/Steel/Data/Steel_production_2015.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/Steel_production_2015.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CEFC89-F156-4218-AB71-FC764F87E7A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3306764-68C3-488A-BD7B-230DA3A02C1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Resource</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>Production</t>
-  </si>
-  <si>
-    <t>Constraint</t>
-  </si>
-  <si>
-    <t>equal</t>
   </si>
   <si>
     <t>t</t>
@@ -102,13 +96,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67AD5AFD-9007-4868-8DCA-C59341F7FCD0}" name="Tableau2" displayName="Tableau2" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3" xr:uid="{2DF62AA5-A9F2-4265-BB76-6D4A23C561E4}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67AD5AFD-9007-4868-8DCA-C59341F7FCD0}" name="Tableau2" displayName="Tableau2" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{2DF62AA5-A9F2-4265-BB76-6D4A23C561E4}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B65651B0-A2AD-48A2-AFC0-17A3ED6D2381}" name="Resource"/>
     <tableColumn id="2" xr3:uid="{37ADCBF2-F982-46D7-89BC-638801F61E08}" name="Unit"/>
     <tableColumn id="3" xr3:uid="{AFBF25C7-E5ED-4FFA-B3B2-5B36AB6E6B05}" name="Production"/>
-    <tableColumn id="4" xr3:uid="{7D6C76A5-5D14-4F01-80E9-163C7072DB05}" name="Constraint"/>
     <tableColumn id="5" xr3:uid="{886A5824-96B9-4B25-9775-2E97D8CE41F3}" name="Margin"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -378,20 +371,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,29 +394,23 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>15000000</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Industry_model/Input/Steel/Data/Steel_production_2015.xlsx
+++ b/Models/Industry_model/Input/Steel/Data/Steel_production_2015.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3306764-68C3-488A-BD7B-230DA3A02C1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D67679-7533-438B-A99F-AE4B338F3CB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
